--- a/data_year/zb/国民经济核算/国内生产总值指数/国内生产总值指数(上年=100).xlsx
+++ b/data_year/zb/国民经济核算/国内生产总值指数/国内生产总值指数(上年=100).xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,526 +468,326 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>107.6385976775</v>
+        <v>110.102832622276</v>
       </c>
       <c r="C2" t="n">
-        <v>108.4900934073</v>
+        <v>110.6358710642</v>
       </c>
       <c r="D2" t="n">
-        <v>108.6132504171</v>
+        <v>110.3465506036</v>
       </c>
       <c r="E2" t="n">
-        <v>102.3285180333</v>
+        <v>104.2510696842</v>
       </c>
       <c r="F2" t="n">
-        <v>109.7763520638</v>
+        <v>109.6689815089</v>
       </c>
       <c r="G2" t="n">
-        <v>109.4738414338</v>
+        <v>112.6835956983</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>107.5516548308</v>
+        <v>108.953816041998</v>
       </c>
       <c r="C3" t="n">
-        <v>108.3357334774</v>
+        <v>109.550832179</v>
       </c>
       <c r="D3" t="n">
-        <v>108.0936099981</v>
+        <v>108.9967102701</v>
       </c>
       <c r="E3" t="n">
-        <v>102.6380712411</v>
+        <v>104.1742892522</v>
       </c>
       <c r="F3" t="n">
-        <v>110.2593883417</v>
+        <v>109.488129439</v>
       </c>
       <c r="G3" t="n">
-        <v>108.4912705339</v>
+        <v>110.688675198</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>108.4048799757</v>
+        <v>107.13452377762</v>
       </c>
       <c r="C4" t="n">
-        <v>109.1336307905</v>
+        <v>107.8637364488</v>
       </c>
       <c r="D4" t="n">
-        <v>109.5933030617</v>
+        <v>108.6255459958</v>
       </c>
       <c r="E4" t="n">
-        <v>102.6999465523</v>
+        <v>104.4665419556</v>
       </c>
       <c r="F4" t="n">
-        <v>110.485635757</v>
+        <v>108.0140997716</v>
       </c>
       <c r="G4" t="n">
-        <v>109.8947487752</v>
+        <v>108.3636404052</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>109.354776643</v>
+        <v>107.050734133966</v>
       </c>
       <c r="C5" t="n">
-        <v>110.0380304802</v>
+        <v>107.7661500977</v>
       </c>
       <c r="D5" t="n">
-        <v>110.4836263147</v>
+        <v>107.1386363736</v>
       </c>
       <c r="E5" t="n">
-        <v>102.3720563672</v>
+        <v>103.807199829</v>
       </c>
       <c r="F5" t="n">
-        <v>109.5398084521</v>
+        <v>108.2991684659</v>
       </c>
       <c r="G5" t="n">
-        <v>112.6672364942</v>
+        <v>107.9872142918</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>109.4615587704</v>
+        <v>106.750760315664</v>
       </c>
       <c r="C6" t="n">
-        <v>110.113621378</v>
+        <v>107.4257636562</v>
       </c>
       <c r="D6" t="n">
-        <v>110.5047572306</v>
+        <v>108.4440223663</v>
       </c>
       <c r="E6" t="n">
-        <v>106.1050199695</v>
+        <v>104.0504682358</v>
       </c>
       <c r="F6" t="n">
-        <v>110.120036434</v>
+        <v>108.3418169386</v>
       </c>
       <c r="G6" t="n">
-        <v>111.145922331</v>
+        <v>107.1555654222</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>110.7413751265</v>
+        <v>106.420736477282</v>
       </c>
       <c r="C7" t="n">
-        <v>111.3945918098</v>
+        <v>107.0413288787</v>
       </c>
       <c r="D7" t="n">
-        <v>110.9006666231</v>
+        <v>106.39548733847</v>
       </c>
       <c r="E7" t="n">
-        <v>105.0739144004</v>
+        <v>103.8985214663</v>
       </c>
       <c r="F7" t="n">
-        <v>112.3579485343</v>
+        <v>108.7767096269</v>
       </c>
       <c r="G7" t="n">
-        <v>112.1283913134</v>
+        <v>105.9267637634</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>112.0933046941</v>
+        <v>106.238215447709</v>
       </c>
       <c r="C8" t="n">
-        <v>112.7209556654</v>
+        <v>106.848762205</v>
       </c>
       <c r="D8" t="n">
-        <v>113.3087985377</v>
+        <v>106.828702380459</v>
       </c>
       <c r="E8" t="n">
-        <v>104.7552782966</v>
+        <v>103.2778135577</v>
       </c>
       <c r="F8" t="n">
-        <v>114.1342093021</v>
+        <v>108.0960799681</v>
       </c>
       <c r="G8" t="n">
-        <v>113.450695538</v>
+        <v>106.0314830601</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>113.6358205009</v>
+        <v>106.301863100564</v>
       </c>
       <c r="C9" t="n">
-        <v>114.2308609334</v>
+        <v>106.9472007933</v>
       </c>
       <c r="D9" t="n">
-        <v>114.7038899919</v>
+        <v>107.33930655143</v>
       </c>
       <c r="E9" t="n">
-        <v>103.5236499021</v>
+        <v>103.9612910019</v>
       </c>
       <c r="F9" t="n">
-        <v>116.0714949944</v>
+        <v>108.2697733232</v>
       </c>
       <c r="G9" t="n">
-        <v>115.0507142548</v>
+        <v>105.8682895083</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>109.090280101</v>
+        <v>106.251700555763</v>
       </c>
       <c r="C10" t="n">
-        <v>109.6506789191</v>
+        <v>106.7497738325</v>
       </c>
       <c r="D10" t="n">
-        <v>110.0831234222</v>
+        <v>106.42035317703</v>
       </c>
       <c r="E10" t="n">
-        <v>105.1560046635</v>
+        <v>103.4829174997</v>
       </c>
       <c r="F10" t="n">
-        <v>110.4758406168</v>
+        <v>107.9835100245</v>
       </c>
       <c r="G10" t="n">
-        <v>109.8389899068</v>
+        <v>105.7924068269</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>108.855947676</v>
+        <v>105.575316863044</v>
       </c>
       <c r="C11" t="n">
-        <v>109.3987256328</v>
+        <v>105.950500753775</v>
       </c>
       <c r="D11" t="n">
-        <v>108.5409114158</v>
+        <v>106.119750793685</v>
       </c>
       <c r="E11" t="n">
-        <v>104.002425784</v>
+        <v>103.076793558474</v>
       </c>
       <c r="F11" t="n">
-        <v>109.5865858289</v>
+        <v>107.181100218291</v>
       </c>
       <c r="G11" t="n">
-        <v>110.2928049832</v>
+        <v>104.874620601736</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>110.1028326223</v>
+        <v>101.995558041843</v>
       </c>
       <c r="C12" t="n">
-        <v>110.6358710642</v>
+        <v>102.238638356268</v>
       </c>
       <c r="D12" t="n">
-        <v>110.3465506036</v>
+        <v>101.704962770202</v>
       </c>
       <c r="E12" t="n">
-        <v>104.2510696842</v>
+        <v>103.131084561215</v>
       </c>
       <c r="F12" t="n">
-        <v>109.6689815089</v>
+        <v>101.947122185273</v>
       </c>
       <c r="G12" t="n">
-        <v>112.6835956983</v>
+        <v>102.46425086884</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>108.953816041999</v>
+        <v>108.4</v>
       </c>
       <c r="C13" t="n">
-        <v>109.550832179</v>
+        <v>108.4</v>
       </c>
       <c r="D13" t="n">
-        <v>108.9967102701</v>
+        <v>108.6</v>
       </c>
       <c r="E13" t="n">
-        <v>104.1742892522</v>
+        <v>107.1</v>
       </c>
       <c r="F13" t="n">
-        <v>109.488129439</v>
+        <v>108.5</v>
       </c>
       <c r="G13" t="n">
-        <v>110.688675198</v>
+        <v>108.7</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2022年</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>107.134523777619</v>
+        <v>103</v>
       </c>
       <c r="C14" t="n">
-        <v>107.8637364488</v>
+        <v>103</v>
       </c>
       <c r="D14" t="n">
-        <v>108.6255459958</v>
+        <v>102.6</v>
       </c>
       <c r="E14" t="n">
-        <v>104.4665419556</v>
+        <v>104.1</v>
       </c>
       <c r="F14" t="n">
-        <v>108.0140997716</v>
+        <v>102.3</v>
       </c>
       <c r="G14" t="n">
-        <v>108.3636404052</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>107.050734133967</v>
-      </c>
-      <c r="C15" t="n">
-        <v>107.7661500977</v>
-      </c>
-      <c r="D15" t="n">
-        <v>107.1386363736</v>
-      </c>
-      <c r="E15" t="n">
-        <v>103.807199829</v>
-      </c>
-      <c r="F15" t="n">
-        <v>108.2991684659</v>
-      </c>
-      <c r="G15" t="n">
-        <v>107.9872142918</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>106.750760315664</v>
-      </c>
-      <c r="C16" t="n">
-        <v>107.4257636562</v>
-      </c>
-      <c r="D16" t="n">
-        <v>108.4440223663</v>
-      </c>
-      <c r="E16" t="n">
-        <v>104.0504682358</v>
-      </c>
-      <c r="F16" t="n">
-        <v>108.3418169386</v>
-      </c>
-      <c r="G16" t="n">
-        <v>107.1555654222</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>106.420736477282</v>
-      </c>
-      <c r="C17" t="n">
-        <v>107.0413288787</v>
-      </c>
-      <c r="D17" t="n">
-        <v>106.39548733847</v>
-      </c>
-      <c r="E17" t="n">
-        <v>103.8985214663</v>
-      </c>
-      <c r="F17" t="n">
-        <v>108.7767096269</v>
-      </c>
-      <c r="G17" t="n">
-        <v>105.9267637634</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>106.238215447709</v>
-      </c>
-      <c r="C18" t="n">
-        <v>106.848762205</v>
-      </c>
-      <c r="D18" t="n">
-        <v>106.828702380459</v>
-      </c>
-      <c r="E18" t="n">
-        <v>103.2778135577</v>
-      </c>
-      <c r="F18" t="n">
-        <v>108.0960799681</v>
-      </c>
-      <c r="G18" t="n">
-        <v>106.0314830601</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>106.301863100564</v>
-      </c>
-      <c r="C19" t="n">
-        <v>106.9472007933</v>
-      </c>
-      <c r="D19" t="n">
-        <v>107.33930655143</v>
-      </c>
-      <c r="E19" t="n">
-        <v>103.9612910019</v>
-      </c>
-      <c r="F19" t="n">
-        <v>108.2697733232</v>
-      </c>
-      <c r="G19" t="n">
-        <v>105.8682895083</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>106.251700555763</v>
-      </c>
-      <c r="C20" t="n">
-        <v>106.7497738325</v>
-      </c>
-      <c r="D20" t="n">
-        <v>106.42035317703</v>
-      </c>
-      <c r="E20" t="n">
-        <v>103.4829174997</v>
-      </c>
-      <c r="F20" t="n">
-        <v>107.9835100245</v>
-      </c>
-      <c r="G20" t="n">
-        <v>105.7924068269</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>105.6</v>
-      </c>
-      <c r="C21" t="n">
-        <v>105.950500753775</v>
-      </c>
-      <c r="D21" t="n">
-        <v>106.119750793685</v>
-      </c>
-      <c r="E21" t="n">
-        <v>103.076793558474</v>
-      </c>
-      <c r="F21" t="n">
-        <v>107.181100218291</v>
-      </c>
-      <c r="G21" t="n">
-        <v>104.874620601736</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>102</v>
-      </c>
-      <c r="C22" t="n">
-        <v>102.2</v>
-      </c>
-      <c r="D22" t="n">
-        <v>101.8</v>
-      </c>
-      <c r="E22" t="n">
-        <v>103.1</v>
-      </c>
-      <c r="F22" t="n">
-        <v>101.9</v>
-      </c>
-      <c r="G22" t="n">
-        <v>102.5</v>
+        <v>103.8</v>
       </c>
     </row>
   </sheetData>
